--- a/REVER_DailyTracker_20201020.xlsx
+++ b/REVER_DailyTracker_20201020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A1BA8D-AB4C-4F61-9AE8-7A622C9E8BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B54A998-1EE6-4015-8702-89E7FBCDB891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="116">
   <si>
     <t>Task</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>QMVAR -Alignment fixed and Analysis Data Devlopment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR -RPA Devlopment </t>
   </si>
 </sst>
 </file>
@@ -1015,15 +1018,15 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1047,7 +1050,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="28.8">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="28.8">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="28.8">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1535,15 +1538,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1646,15 +1649,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1756,15 +1759,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2148,15 +2151,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2255,19 +2258,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2359,7 +2362,7 @@
       <c r="F5" s="55"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2380,7 +2383,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2401,7 +2404,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="8" spans="1:7" s="4" customFormat="1">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2443,7 +2446,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -2536,7 +2539,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2557,7 +2560,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -2578,7 +2581,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="28.8">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -2629,7 +2632,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:7" ht="28.8">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -2649,6 +2652,27 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21">
+        <v>44124</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="12" t="s">
@@ -2693,15 +2717,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2804,15 +2828,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2838,7 +2862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2861,7 +2885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="28.8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2884,7 +2908,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2907,7 +2931,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2930,7 +2954,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2953,7 +2977,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2976,7 +3000,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="8" spans="1:7" s="4" customFormat="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2999,7 +3023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3045,7 +3069,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3141,15 +3165,15 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -3548,15 +3572,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3655,19 +3679,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3693,7 +3717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3759,7 +3783,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3780,7 +3804,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3801,7 +3825,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3822,7 +3846,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3843,7 +3867,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3894,7 +3918,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3915,7 +3939,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3936,7 +3960,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3957,7 +3981,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4029,7 +4053,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4050,7 +4074,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>

--- a/REVER_DailyTracker_20201020.xlsx
+++ b/REVER_DailyTracker_20201020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B54A998-1EE6-4015-8702-89E7FBCDB891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BAD858-1738-412C-B8A7-B09398EAF367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -218,172 +218,22 @@
     <t>2 Correction of Password Management task is pending</t>
   </si>
   <si>
-    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>QMVAR , Hayaai</t>
-  </si>
-  <si>
-    <t>Application- login design and Hayaai Flyer design</t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t>Two sample Flyer design</t>
-  </si>
-  <si>
-    <t>1) Flyer design completed                                                                                       2) ID card created                                                                            3) Name card created</t>
-  </si>
-  <si>
-    <t>Analysis - File Upload - Design completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayaai </t>
-  </si>
-  <si>
-    <t>Website Translation replaced in php file</t>
-  </si>
-  <si>
-    <t>Hayaai ,QMVAR</t>
-  </si>
-  <si>
-    <t>1) Contact Card 2 samples designed                                      2) QMVAR - 2pages design completed</t>
-  </si>
-  <si>
-    <t>1) Acknowledgement screen designed                                      2) QMVAR - Activity Report page design completed</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>QMVAR -Analysis Data page design and alignment issues completed</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing, Retesting on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>creating Setup file</t>
-  </si>
-  <si>
-    <t>Layout Designing</t>
-  </si>
-  <si>
-    <t>Emplogin</t>
-  </si>
-  <si>
-    <t>Adding assests Detatils</t>
-  </si>
-  <si>
-    <t>Adding assests Detatils and responisble view</t>
-  </si>
-  <si>
-    <t>stored management added in Monthly target</t>
-  </si>
-  <si>
-    <t>adding layout in analysis file upload</t>
-  </si>
-  <si>
-    <t>adding layout in analysis file Export</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, SONY SID, QMVAR Setup File Create</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, QMVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, EMP_RegLogin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony SID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR Recovery(CSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR (CSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> best_search_all8, best_report_all8, SID Sony </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, QMVAR Setup File Create, QMVAR CSS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, MrMax import File Check, QMVAR CSS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Employee RegLogin Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, SONY SID (export import checking)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, CSS QMVAR (Recovery Menu), Sony File Export</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony File Export selenium, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, QMVAR migration, Sony File Export Selenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Son Seleniumy File Export</t>
-  </si>
-  <si>
-    <t>Sony SID Issue File Checking</t>
-  </si>
-  <si>
-    <t>QMVAR CSS Progress</t>
-  </si>
-  <si>
-    <t>Salary tab Page (Modification) Add Column</t>
-  </si>
-  <si>
-    <t>Employee RegLogin Application All Pages design Changes(Personal Info, Education &amp; experience , Bank Details Completed) tabs Completed</t>
-  </si>
-  <si>
-    <t>Sony Daily RepairSetNp, LogFile Selenium</t>
-  </si>
-  <si>
-    <t>Sony Export,LogFile Selenium</t>
-  </si>
-  <si>
-    <t>DRS Count - Saw Discount changes and Issue</t>
-  </si>
-  <si>
-    <t>DRS Count - Saw Discount Summary &amp; Details</t>
-  </si>
-  <si>
-    <t>DRS - Daily Revenue</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>Go through Soica Project MDB File Application</t>
-  </si>
-  <si>
-    <t>Check Suma Email and Start work application</t>
-  </si>
-  <si>
-    <t>QMVAR -Alignment fixed and Analysis Data Devlopment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMVAR -RPA Devlopment </t>
+    <t>1.  Downloading DRS task done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Downloading InvoicePDF task done (downloading pdf, pdf to csv) </t>
+  </si>
+  <si>
+    <t>1. Correction of Password Management has done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Went to the office to support the System Admin towards formatting, windows 7 installation and office 365 softwares are installed at Oldbot </t>
+  </si>
+  <si>
+    <t>2. and office365 has been installed at newbot</t>
+  </si>
+  <si>
+    <t>3. Warranty task has been done towards download</t>
   </si>
 </sst>
 </file>
@@ -393,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,18 +294,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -558,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -672,31 +510,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1522,6 +1335,108 @@
       </c>
       <c r="F44" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>19</v>
+      </c>
+      <c r="B46" s="52">
+        <v>44123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="D47" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="28">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" s="52">
+        <v>44123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="28">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8">
+      <c r="A50">
+        <v>21</v>
+      </c>
+      <c r="B50" s="52">
+        <v>44124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="D51" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="28">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>22</v>
+      </c>
+      <c r="B52" s="52">
+        <v>44124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="28">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1671,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1836,213 +1751,93 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33">
-        <v>44109</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33">
-        <v>44110</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33">
-        <v>44111</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33">
-        <v>44112</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33">
-        <v>44113</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33">
-        <v>44116</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33">
-        <v>44117</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="33">
-        <v>44118</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>5</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>15</v>
-      </c>
-      <c r="B12" s="33">
-        <v>44119</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>5</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1">
-        <v>16</v>
-      </c>
-      <c r="B13" s="33">
-        <v>44120</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
@@ -2256,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2317,389 +2112,46 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="53">
-        <v>44106</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="26">
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="53">
-        <v>44107</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="26">
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53">
-        <v>44108</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="53">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="53">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21">
-        <v>44119</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="28.8">
-      <c r="A17" s="20">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21">
-        <v>44120</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="26">
-        <v>17</v>
-      </c>
-      <c r="B18" s="53">
-        <v>44114</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="26">
-        <v>18</v>
-      </c>
-      <c r="B19" s="53">
-        <v>44115</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="28.8">
-      <c r="A20" s="20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21">
-        <v>44123</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="20">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21">
-        <v>44124</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="C24" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="8"/>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="9"/>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="10"/>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="11"/>
-      <c r="C28" t="s">
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2825,14 +2277,14 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -2875,7 +2327,7 @@
       <c r="D2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="28">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2885,236 +2337,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21">
-        <v>44119</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21">
-        <v>44120</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
     <row r="15" spans="1:7" s="4" customFormat="1"/>
@@ -3162,7 +2402,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3307,230 +2547,24 @@
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="31">
-        <v>44117</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31">
-        <v>44118</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="31">
-        <v>44119</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="31">
-        <v>44120</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1"/>
-    <row r="22" spans="1:7">
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="2:3">
       <c r="B23" s="43" t="s">
         <v>3</v>
       </c>
@@ -3538,13 +2572,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="2:3">
       <c r="B25" s="25" t="s">
         <v>5</v>
       </c>
@@ -3552,7 +2586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>10</v>
@@ -3679,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3796,342 +2830,54 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="31">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="31">
-        <v>44119</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="31">
-        <v>44120</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="31">
-        <v>44121</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="31">
-        <v>44122</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="31">
-        <v>44123</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="43.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="31">
-        <v>44124</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="31">
-        <v>44125</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="20" spans="2:3" s="4" customFormat="1"/>
+    <row r="21" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3" s="4" customFormat="1"/>
+    <row r="25" spans="2:3">
       <c r="C25" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="2:3">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="2:3">
       <c r="B27" s="9"/>
       <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="2:3">
       <c r="B28" s="10"/>
       <c r="C28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="2:3">
       <c r="B29" s="11"/>
       <c r="C29" t="s">
         <v>10</v>

--- a/REVER_DailyTracker_20201020.xlsx
+++ b/REVER_DailyTracker_20201020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BAD858-1738-412C-B8A7-B09398EAF367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A422F2-2BC9-477A-A9EA-4183A4D82967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="77">
   <si>
     <t>Task</t>
   </si>
@@ -234,6 +234,39 @@
   </si>
   <si>
     <t>3. Warranty task has been done towards download</t>
+  </si>
+  <si>
+    <t>creating Setup file</t>
+  </si>
+  <si>
+    <t>Layout Designing</t>
+  </si>
+  <si>
+    <t>Emplogin</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils and responisble view</t>
+  </si>
+  <si>
+    <t>stored management added in Monthly target</t>
+  </si>
+  <si>
+    <t>adding layout in analysis file upload</t>
+  </si>
+  <si>
+    <t>adding layout in analysis file Export</t>
+  </si>
+  <si>
+    <t>adding layout in analysis report and stored managemant</t>
+  </si>
+  <si>
+    <t>soniya</t>
+  </si>
+  <si>
+    <t>migration testing issue</t>
   </si>
 </sst>
 </file>
@@ -396,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -510,6 +543,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -2399,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2547,48 +2583,325 @@
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="43" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="31">
+        <v>44121</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="31">
+        <v>44122</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
+    <row r="31" spans="1:7">
+      <c r="C31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="11"/>
+      <c r="D32" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2714,7 +3027,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/REVER_DailyTracker_20201020.xlsx
+++ b/REVER_DailyTracker_20201020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A422F2-2BC9-477A-A9EA-4183A4D82967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280EE555-1080-4DD6-ABAA-C36299198DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="84">
   <si>
     <t>Task</t>
   </si>
@@ -267,6 +267,27 @@
   </si>
   <si>
     <t>migration testing issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount changes and Issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount Summary &amp; Details</t>
+  </si>
+  <si>
+    <t>DRS - Daily Revenue</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Go through Soica Project MDB File Application</t>
+  </si>
+  <si>
+    <t>Check Suma Email and Start work application</t>
+  </si>
+  <si>
+    <t>Access DB Migration - BIC CAMERA - 1</t>
   </si>
 </sst>
 </file>
@@ -276,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +347,20 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -429,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -545,6 +580,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,15 +908,15 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -899,7 +940,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -972,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1074,7 +1115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1085,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1202,7 +1243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8">
+    <row r="33" spans="1:6" ht="30">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1273,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1293,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8">
+    <row r="40" spans="1:6" ht="30">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1313,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8">
+    <row r="41" spans="1:6" ht="45">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1424,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.8">
+    <row r="50" spans="1:6" ht="30">
       <c r="A50">
         <v>21</v>
       </c>
@@ -1489,15 +1530,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1600,15 +1641,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1706,19 +1747,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1787,111 +1828,255 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44110</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>44111</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44112</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>44113</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>44116</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>44117</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>44118</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="33">
+        <v>44119</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="33">
+        <v>44120</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" s="33">
+        <v>44123</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="33">
+        <v>44124</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1">
@@ -1982,15 +2167,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2093,15 +2278,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2205,15 +2390,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2316,15 +2501,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2350,7 +2535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2437,19 +2622,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2758,7 +2943,7 @@
       </c>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="19.8" customHeight="1">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2830,7 +3015,7 @@
       <c r="F20" s="42"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="19.8" customHeight="1">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2919,15 +3104,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3030,15 +3215,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3064,7 +3249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3130,7 +3315,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>

--- a/REVER_DailyTracker_20201020.xlsx
+++ b/REVER_DailyTracker_20201020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280EE555-1080-4DD6-ABAA-C36299198DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4E13DD-2AE6-462C-99FB-69F84833C7BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="106">
   <si>
     <t>Task</t>
   </si>
@@ -288,6 +288,78 @@
   </si>
   <si>
     <t>Access DB Migration - BIC CAMERA - 1</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>Correction Job Details API to get Pickup Ack information</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In /instantfix/create and instantfix/update:
+Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
+Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
+Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
+</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>Worked on to overcome the security certificate confirmation through Windows registry Key</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAYAAI-B2B </t>
+  </si>
+  <si>
+    <t>To display JobSheet details in B2C ,Repairs tab,
+First call userissues API,in which you will get eq_stock_id.
+Pass that eq_Stock_id to this new acknowldgesheet API</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>have modified the msg and have passed customer address in Push Notification.</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>added new company type Services, with role name as 'Srv_Admin',following functions have been added to this user.</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>This is the latest file text wrap and subject has been changed.Subject is changed to take from table instead of hard coding so now whatever the first record and the last ssc centre it would dispkay that</t>
   </si>
 </sst>
 </file>
@@ -353,7 +425,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -908,15 +980,15 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -940,7 +1012,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1013,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1115,7 +1187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1126,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1243,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="28.8">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1314,7 +1386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1334,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="28.8">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1354,7 +1426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="28.8">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1465,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30">
+    <row r="50" spans="1:6" ht="28.8">
       <c r="A50">
         <v>21</v>
       </c>
@@ -1530,15 +1602,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1641,15 +1713,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1747,19 +1819,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2037,7 +2109,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.6">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -2058,7 +2130,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.6">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -2163,19 +2235,466 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>43961</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45">
+        <v>43992</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="46">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45">
+        <v>44022</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="46">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45">
+        <v>44053</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45">
+        <v>44084</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45">
+        <v>44175</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="46">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="57.6">
+      <c r="A14" s="47">
+        <v>13</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="46">
+        <v>1</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2270,23 +2789,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2312,126 +2831,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2493,23 +2914,501 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="31">
+        <v>44121</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="31">
+        <v>44122</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="11"/>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2535,28 +3434,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="28">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2618,595 +3503,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="31">
-        <v>44117</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31">
-        <v>44118</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="31">
-        <v>44119</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="31">
-        <v>44120</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="31">
-        <v>44121</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="31">
-        <v>44122</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="31">
-        <v>44119</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="31">
-        <v>44120</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="D28" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="C29" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="C30" s="9"/>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="C31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="C32" s="11"/>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
@@ -3215,15 +3511,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3249,7 +3545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3315,7 +3611,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
